--- a/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_SUBJ.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_SUBJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\1_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422BAA5-5CC4-4972-8580-642AFB53771F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888FE87-512C-45B7-9CC2-B901DA66E61A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1053,7 +1055,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,354 +1103,354 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>86.799997091293335</v>
+        <v>92.599999904632568</v>
       </c>
       <c r="E2">
-        <v>88.099998235702515</v>
+        <v>93.599998950958252</v>
       </c>
       <c r="F2">
-        <v>89.200001955032349</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="G2">
-        <v>89.099997282028198</v>
+        <v>92.299997806549072</v>
       </c>
       <c r="H2">
-        <v>85.699999332427979</v>
+        <v>93.000000715255737</v>
       </c>
       <c r="I2">
-        <v>88.099998235702515</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="J2">
-        <v>91.00000262260437</v>
+        <v>93.000000715255737</v>
       </c>
       <c r="K2">
-        <v>87.599998712539673</v>
+        <v>93.000000715255737</v>
       </c>
       <c r="L2">
-        <v>88.899999856948853</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="M2">
-        <v>82.999998331069946</v>
+        <v>93.199998140335083</v>
       </c>
       <c r="N2">
-        <v>87.749999165534973</v>
+        <v>92.509999871253967</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>89.999997615814209</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="E3">
-        <v>88.300001621246338</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="F3">
-        <v>84.799998998641968</v>
+        <v>91.699999570846558</v>
       </c>
       <c r="G3">
-        <v>89.499998092651367</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="H3">
-        <v>85.500001907348633</v>
+        <v>93.500000238418579</v>
       </c>
       <c r="I3">
-        <v>80.199998617172241</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="J3">
-        <v>85.199999809265137</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="K3">
-        <v>90.100002288818359</v>
+        <v>93.300002813339233</v>
       </c>
       <c r="L3">
-        <v>89.099997282028198</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="M3">
-        <v>91.399997472763062</v>
+        <v>91.900002956390381</v>
       </c>
       <c r="N3">
-        <v>87.409999370574951</v>
+        <v>92.369999885559082</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
       <c r="D4">
-        <v>87.199997901916504</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="E4">
-        <v>85.000002384185791</v>
+        <v>92.299997806549072</v>
       </c>
       <c r="F4">
-        <v>85.799998044967651</v>
+        <v>94.099998474121094</v>
       </c>
       <c r="G4">
-        <v>87.099999189376831</v>
+        <v>92.500001192092896</v>
       </c>
       <c r="H4">
-        <v>90.799999237060547</v>
+        <v>92.400002479553223</v>
       </c>
       <c r="I4">
-        <v>88.999998569488525</v>
+        <v>91.79999828338623</v>
       </c>
       <c r="J4">
-        <v>85.600000619888306</v>
+        <v>91.100001335144043</v>
       </c>
       <c r="K4">
-        <v>87.000000476837158</v>
+        <v>91.100001335144043</v>
       </c>
       <c r="L4">
-        <v>79.500001668930054</v>
+        <v>92.400002479553223</v>
       </c>
       <c r="M4">
-        <v>85.600000619888306</v>
+        <v>92.100000381469727</v>
       </c>
       <c r="N4">
-        <v>86.259999871253967</v>
+        <v>92.080000638961792</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>88.599997758865356</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="E5">
-        <v>87.400001287460327</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="F5">
-        <v>84.799998998641968</v>
+        <v>91.299998760223389</v>
       </c>
       <c r="G5">
-        <v>83.899998664855957</v>
+        <v>91.600000858306885</v>
       </c>
       <c r="H5">
-        <v>89.800000190734863</v>
+        <v>92.299997806549072</v>
       </c>
       <c r="I5">
-        <v>81.199997663497925</v>
+        <v>90.799999237060547</v>
       </c>
       <c r="J5">
-        <v>90.700000524520874</v>
+        <v>92.900002002716064</v>
       </c>
       <c r="K5">
-        <v>83.399999141693115</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="L5">
-        <v>88.700002431869507</v>
+        <v>91.699999570846558</v>
       </c>
       <c r="M5">
-        <v>80.500000715255737</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="N5">
-        <v>85.899999737739563</v>
+        <v>91.71999990940094</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>80.900001525878906</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="E6">
-        <v>87.800002098083496</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="F6">
-        <v>88.499999046325684</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="G6">
-        <v>77.899998426437378</v>
+        <v>92.000001668930054</v>
       </c>
       <c r="H6">
-        <v>82.999998331069946</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="I6">
-        <v>84.799998998641968</v>
+        <v>93.400001525878906</v>
       </c>
       <c r="J6">
-        <v>84.700000286102295</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="K6">
-        <v>89.499998092651367</v>
+        <v>92.000001668930054</v>
       </c>
       <c r="L6">
-        <v>85.29999852180481</v>
+        <v>50.400000810623169</v>
       </c>
       <c r="M6">
-        <v>86.100000143051147</v>
+        <v>90.799999237060547</v>
       </c>
       <c r="N6">
-        <v>84.8499995470047</v>
+        <v>87.730000019073486</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>79.699999094009399</v>
+        <v>91.699999570846558</v>
       </c>
       <c r="E7">
-        <v>84.500002861022949</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="F7">
-        <v>88.999998569488525</v>
+        <v>90.600001811981201</v>
       </c>
       <c r="G7">
-        <v>88.499999046325684</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="H7">
-        <v>86.299997568130493</v>
+        <v>90.100002288818359</v>
       </c>
       <c r="I7">
-        <v>84.799998998641968</v>
+        <v>51.399999856948853</v>
       </c>
       <c r="J7">
-        <v>83.399999141693115</v>
+        <v>92.100000381469727</v>
       </c>
       <c r="K7">
-        <v>83.20000171661377</v>
+        <v>90.299999713897705</v>
       </c>
       <c r="L7">
-        <v>88.200002908706665</v>
+        <v>90.399998426437378</v>
       </c>
       <c r="M7">
-        <v>79.900002479553223</v>
+        <v>91.600000858306885</v>
       </c>
       <c r="N7">
-        <v>84.750000238418579</v>
+        <v>87.379999756813049</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
       <c r="D8">
-        <v>86.699998378753662</v>
+        <v>90.89999794960022</v>
       </c>
       <c r="E8">
-        <v>84.500002861022949</v>
+        <v>91.399997472763062</v>
       </c>
       <c r="F8">
-        <v>84.399998188018799</v>
+        <v>91.200000047683716</v>
       </c>
       <c r="G8">
-        <v>82.099997997283936</v>
+        <v>48.600000143051147</v>
       </c>
       <c r="H8">
-        <v>87.999999523162842</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="I8">
-        <v>87.599998712539673</v>
+        <v>91.79999828338623</v>
       </c>
       <c r="J8">
-        <v>85.600000619888306</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="K8">
-        <v>71.899998188018799</v>
+        <v>90.600001811981201</v>
       </c>
       <c r="L8">
-        <v>85.399997234344482</v>
+        <v>91.100001335144043</v>
       </c>
       <c r="M8">
-        <v>88.099998235702515</v>
+        <v>91.100001335144043</v>
       </c>
       <c r="N8">
-        <v>84.429998993873596</v>
+        <v>87.089999914169312</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>85.100001096725464</v>
+        <v>91.200000047683716</v>
       </c>
       <c r="E9">
-        <v>88.899999856948853</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="F9">
-        <v>86.100000143051147</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="G9">
-        <v>88.700002431869507</v>
+        <v>92.100000381469727</v>
       </c>
       <c r="H9">
-        <v>84.799998998641968</v>
+        <v>92.100000381469727</v>
       </c>
       <c r="I9">
-        <v>76.499998569488525</v>
+        <v>91.299998760223389</v>
       </c>
       <c r="J9">
-        <v>86.299997568130493</v>
+        <v>45.899999141693122</v>
       </c>
       <c r="K9">
-        <v>88.700002431869507</v>
+        <v>91.299998760223389</v>
       </c>
       <c r="L9">
-        <v>76.30000114440918</v>
+        <v>90.89999794960022</v>
       </c>
       <c r="M9">
-        <v>82.099997997283936</v>
+        <v>91.600000858306885</v>
       </c>
       <c r="N9">
-        <v>84.350000023841858</v>
+        <v>86.959999799728394</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1463,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1518,37 +1520,37 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>91.699999570846558</v>
+        <v>91.299998760223389</v>
       </c>
       <c r="E2">
-        <v>91.79999828338623</v>
+        <v>93.900001049041748</v>
       </c>
       <c r="F2">
-        <v>89.499998092651367</v>
+        <v>93.599998950958252</v>
       </c>
       <c r="G2">
-        <v>88.599997758865356</v>
+        <v>93.09999942779541</v>
       </c>
       <c r="H2">
-        <v>92.299997806549072</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="I2">
-        <v>90.399998426437378</v>
+        <v>93.400001525878906</v>
       </c>
       <c r="J2">
-        <v>90.100002288818359</v>
+        <v>93.300002813339233</v>
       </c>
       <c r="K2">
-        <v>91.399997472763062</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="L2">
-        <v>91.500002145767212</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="M2">
-        <v>91.600000858306885</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="N2">
-        <v>90.889999270439148</v>
+        <v>92.829999923706055</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1562,213 +1564,213 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>88.80000114440918</v>
+        <v>93.300002813339233</v>
       </c>
       <c r="E3">
-        <v>92.400002479553223</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="F3">
-        <v>90.799999237060547</v>
+        <v>92.900002002716064</v>
       </c>
       <c r="G3">
-        <v>91.900002956390381</v>
+        <v>94.300001859664917</v>
       </c>
       <c r="H3">
-        <v>91.299998760223389</v>
+        <v>91.699999570846558</v>
       </c>
       <c r="I3">
-        <v>91.900002956390381</v>
+        <v>93.09999942779541</v>
       </c>
       <c r="J3">
-        <v>92.400002479553223</v>
+        <v>92.599999904632568</v>
       </c>
       <c r="K3">
-        <v>86.100000143051147</v>
+        <v>91.600000858306885</v>
       </c>
       <c r="L3">
+        <v>92.599999904632568</v>
+      </c>
+      <c r="M3">
         <v>91.600000858306885</v>
       </c>
-      <c r="M3">
-        <v>91.500002145767212</v>
-      </c>
       <c r="N3">
-        <v>90.870001316070557</v>
+        <v>92.6500004529953</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>92.699998617172241</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="E4">
         <v>91.399997472763062</v>
       </c>
       <c r="F4">
+        <v>93.300002813339233</v>
+      </c>
+      <c r="G4">
+        <v>91.900002956390381</v>
+      </c>
+      <c r="H4">
+        <v>92.900002002716064</v>
+      </c>
+      <c r="I4">
+        <v>93.000000715255737</v>
+      </c>
+      <c r="J4">
+        <v>92.199999094009399</v>
+      </c>
+      <c r="K4">
+        <v>93.000000715255737</v>
+      </c>
+      <c r="L4">
+        <v>92.699998617172241</v>
+      </c>
+      <c r="M4">
         <v>91.600000858306885</v>
       </c>
-      <c r="G4">
-        <v>91.100001335144043</v>
-      </c>
-      <c r="H4">
-        <v>90.600001811981201</v>
-      </c>
-      <c r="I4">
-        <v>92.299997806549072</v>
-      </c>
-      <c r="J4">
-        <v>87.300002574920654</v>
-      </c>
-      <c r="K4">
-        <v>90.100002288818359</v>
-      </c>
-      <c r="L4">
-        <v>90.200001001358032</v>
-      </c>
-      <c r="M4">
-        <v>91.100001335144043</v>
-      </c>
       <c r="N4">
-        <v>90.840000510215759</v>
+        <v>92.420000433921814</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>90.399998426437378</v>
+        <v>94.099998474121094</v>
       </c>
       <c r="E5">
-        <v>92.199999094009399</v>
+        <v>50.499999523162842</v>
       </c>
       <c r="F5">
-        <v>88.899999856948853</v>
+        <v>92.400002479553223</v>
       </c>
       <c r="G5">
-        <v>91.00000262260437</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="H5">
-        <v>88.599997758865356</v>
+        <v>92.699998617172241</v>
       </c>
       <c r="I5">
-        <v>90.299999713897705</v>
+        <v>91.699999570846558</v>
       </c>
       <c r="J5">
-        <v>93.199998140335083</v>
+        <v>92.599999904632568</v>
       </c>
       <c r="K5">
-        <v>89.70000147819519</v>
+        <v>91.200000047683716</v>
       </c>
       <c r="L5">
-        <v>91.699999570846558</v>
+        <v>91.900002956390381</v>
       </c>
       <c r="M5">
-        <v>92.100000381469727</v>
+        <v>93.500000238418579</v>
       </c>
       <c r="N5">
-        <v>90.809999704360962</v>
+        <v>88.330000042915344</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>92.000001668930054</v>
+        <v>92.799997329711914</v>
       </c>
       <c r="E6">
-        <v>91.500002145767212</v>
+        <v>93.199998140335083</v>
       </c>
       <c r="F6">
-        <v>91.600000858306885</v>
+        <v>91.100001335144043</v>
       </c>
       <c r="G6">
-        <v>89.800000190734863</v>
+        <v>50.300002098083503</v>
       </c>
       <c r="H6">
         <v>91.399997472763062</v>
       </c>
       <c r="I6">
-        <v>93.900001049041748</v>
+        <v>93.300002813339233</v>
       </c>
       <c r="J6">
-        <v>89.099997282028198</v>
+        <v>90.799999237060547</v>
       </c>
       <c r="K6">
-        <v>91.79999828338623</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="L6">
-        <v>88.80000114440918</v>
+        <v>93.500000238418579</v>
       </c>
       <c r="M6">
-        <v>86.19999885559082</v>
+        <v>93.199998140335083</v>
       </c>
       <c r="N6">
-        <v>90.609999895095825</v>
+        <v>88.179999589920044</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>88.999998569488525</v>
+        <v>48.399999737739563</v>
       </c>
       <c r="E7">
-        <v>90.799999237060547</v>
+        <v>91.299998760223389</v>
       </c>
       <c r="F7">
-        <v>88.999998569488525</v>
+        <v>92.900002002716064</v>
       </c>
       <c r="G7">
-        <v>90.799999237060547</v>
+        <v>93.000000715255737</v>
       </c>
       <c r="H7">
-        <v>90.89999794960022</v>
+        <v>92.900002002716064</v>
       </c>
       <c r="I7">
         <v>91.399997472763062</v>
       </c>
       <c r="J7">
-        <v>89.099997282028198</v>
+        <v>92.500001192092896</v>
       </c>
       <c r="K7">
-        <v>90.89999794960022</v>
+        <v>92.299997806549072</v>
       </c>
       <c r="L7">
-        <v>92.400002479553223</v>
+        <v>92.000001668930054</v>
       </c>
       <c r="M7">
-        <v>91.600000858306885</v>
+        <v>92.599999904632568</v>
       </c>
       <c r="N7">
-        <v>90.589998960494995</v>
+        <v>87.930000126361847</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1782,81 +1784,81 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>89.499998092651367</v>
+        <v>91.500002145767212</v>
       </c>
       <c r="E8">
-        <v>91.200000047683716</v>
+        <v>50.499999523162842</v>
       </c>
       <c r="F8">
-        <v>88.300001621246338</v>
+        <v>92.400002479553223</v>
       </c>
       <c r="G8">
-        <v>91.299998760223389</v>
+        <v>91.900002956390381</v>
       </c>
       <c r="H8">
-        <v>89.800000190734863</v>
+        <v>91.900002956390381</v>
       </c>
       <c r="I8">
-        <v>90.799999237060547</v>
+        <v>50.900000333786011</v>
       </c>
       <c r="J8">
+        <v>92.400002479553223</v>
+      </c>
+      <c r="K8">
+        <v>92.799997329711914</v>
+      </c>
+      <c r="L8">
         <v>93.300002813339233</v>
       </c>
-      <c r="K8">
-        <v>88.700002431869507</v>
-      </c>
-      <c r="L8">
-        <v>89.399999380111694</v>
-      </c>
       <c r="M8">
-        <v>90.100002288818359</v>
+        <v>92.199999094009399</v>
       </c>
       <c r="N8">
-        <v>90.240000486373901</v>
+        <v>83.980001211166382</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>89.800000190734863</v>
+        <v>49.399998784065247</v>
       </c>
       <c r="E9">
-        <v>91.79999828338623</v>
+        <v>48.800000548362732</v>
       </c>
       <c r="F9">
-        <v>88.700002431869507</v>
+        <v>50.400000810623169</v>
       </c>
       <c r="G9">
+        <v>92.299997806549072</v>
+      </c>
+      <c r="H9">
+        <v>93.000000715255737</v>
+      </c>
+      <c r="I9">
+        <v>93.400001525878906</v>
+      </c>
+      <c r="J9">
+        <v>47.79999852180481</v>
+      </c>
+      <c r="K9">
+        <v>92.299997806549072</v>
+      </c>
+      <c r="L9">
+        <v>92.100000381469727</v>
+      </c>
+      <c r="M9">
         <v>91.299998760223389</v>
       </c>
-      <c r="H9">
-        <v>91.299998760223389</v>
-      </c>
-      <c r="I9">
-        <v>86.299997568130493</v>
-      </c>
-      <c r="J9">
-        <v>91.79999828338623</v>
-      </c>
-      <c r="K9">
-        <v>90.799999237060547</v>
-      </c>
-      <c r="L9">
-        <v>86.900001764297485</v>
-      </c>
-      <c r="M9">
-        <v>91.600000858306885</v>
-      </c>
       <c r="N9">
-        <v>90.029999613761902</v>
+        <v>75.079999566078186</v>
       </c>
     </row>
   </sheetData>
